--- a/第二小组_企业模拟经营_10-31/季度开支表.xlsx
+++ b/第二小组_企业模拟经营_10-31/季度开支表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\company-manage\10-31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\company-manage\第二小组_企业模拟经营_10-31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Q1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,14 +82,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贷款               17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场准入证    1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>维修费         1+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,10 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>广告费             1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日常管理         1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,14 +106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贷款                 17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款           17+0.85</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合计      支出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -134,11 +114,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>支付所得税  0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4（上期余额）</t>
+    <t>贷款               20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地市场准入  1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域市场准入证    1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告费             2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买R1           1*7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工费            1*7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款                 50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付所得税  7*0.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修费         1+1+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生产线   12*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款 20+20*5%*（3/4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产线折旧费  1+2+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款 50+50*5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款                 80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买R2           1*3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告费             3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工费            1*3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付所得税  0.8125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发P2          2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -193,27 +241,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -235,8 +268,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,9 +566,9 @@
     <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -549,8 +582,11 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -558,36 +594,45 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -601,9 +646,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>40</v>
@@ -615,120 +660,249 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7.8125</v>
+      </c>
+      <c r="F8" s="2">
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>40</v>
       </c>
       <c r="C9" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="4">
+        <f>F9-F8</f>
+        <v>2.1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="B20" s="2">
+        <v>35.75</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>52.1875</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5.08</v>
-      </c>
-      <c r="C17" s="2">
-        <v>26.85</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
